--- a/plan/test/repository/単体テスト仕様書-OrderRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-OrderRepository.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D98AA-9B5E-43A3-A728-395B4436E50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2CC229-A8D0-411D-A7F4-0391C72C1D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="1270" windowWidth="12080" windowHeight="7270" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderRepository" sheetId="166" r:id="rId1"/>
@@ -472,18 +472,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,24 +509,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:L6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -881,25 +881,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,23 +914,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -968,20 +968,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="19" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -991,10 +991,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
@@ -1003,55 +1003,61 @@
       <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="22" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1060,12 +1066,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-OrderRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-OrderRepository.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2CC229-A8D0-411D-A7F4-0391C72C1D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F9AD9B-EB67-4603-B0C9-0650FA084B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="1270" windowWidth="12080" windowHeight="7270" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderRepository" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>作成者</t>
   </si>
@@ -164,10 +164,6 @@
   </si>
   <si>
     <t>insert(order:Order):</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>selectByDateOrUserName(date:String,userName:String)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -227,49 +223,111 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下記を引数に当該メソッドを実行
-userName = "山田太郎"</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
+    <t>repository/OrderRepository.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByPage(pageable:Pageable,date:LocalDateTime,customerId:Integer)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectAllPaymentMethod():List&lt;PaymentMethod&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>insertOrderDetail(orderDetail:OrderDetail):void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>insertOrderStatus(status:String):void</t>
+  </si>
+  <si>
+    <t>pageable = PageRequest.of(ページナンバー1,ページサイズ 3)
+customerID=1
+で当該メソッドを実行</t>
+    <rPh sb="59" eb="61">
       <t>トウガイ</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="66" eb="68">
       <t>ジッコウ</t>
     </rPh>
-    <rPh sb="28" eb="32">
-      <t>ヤマダタロウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>注文テーブルから「山田太郎」による注文データが全て引き出せていること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注文テーブルからcustomerIdが１の顧客の注文が返されること。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いまだ注文テーブルにデータを入れていないため、詳細は追って記載する。</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>チュウモン</t>
     </rPh>
-    <rPh sb="9" eb="13">
-      <t>ヤマダタロウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="21" eb="23">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
       <t>チュウモン</t>
     </rPh>
-    <rPh sb="23" eb="24">
+    <rPh sb="27" eb="28">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当該メソッドを実行</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払方法テーブルから全てのレコードが返される。（現金しかデータがないため、現金のみが返される）</t>
+    <rPh sb="0" eb="4">
+      <t>シハライホウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>スベ</t>
     </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>repository/OrderRepository.java</t>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゲンキン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ゲンキン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カエ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -277,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -325,6 +383,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -472,14 +538,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -490,25 +568,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -881,25 +947,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,28 +980,28 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="12">
-        <v>45496</v>
+        <v>45505</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>5</v>
@@ -968,20 +1034,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="25" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -991,10 +1057,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
@@ -1003,61 +1069,137 @@
       <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
+      <c r="C6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" ht="60" customHeight="1">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" ht="60" customHeight="1">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="60" customHeight="1">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
+  <mergeCells count="23">
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1066,6 +1208,12 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-OrderRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-OrderRepository.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F9AD9B-EB67-4603-B0C9-0650FA084B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27070A95-059F-47D9-9639-04D31A597D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderRepository" sheetId="166" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="92512" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>作成者</t>
   </si>
@@ -181,53 +194,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下記を引数に当該メソッドを実行
-order(
-orderId = null, orderDate = "2001年06月09日(水)午後04時01分19秒", amountTotal = 1, orderStatus = 1, paymethod = 1, customerId = 1)</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">トウガイ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ジッコウ </t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>スイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ゴゴ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>repository/OrderRepository.java</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>selectByPage(pageable:Pageable,date:LocalDateTime,customerId:Integer)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -254,51 +221,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">注文テーブルからcustomerIdが１の顧客の注文が返されること。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>いまだ注文テーブルにデータを入れていないため、詳細は追って記載する。</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>当該メソッドを実行</t>
     <rPh sb="0" eb="2">
       <t>トウガイ</t>
@@ -326,6 +248,79 @@
       <t>ゲンキン</t>
     </rPh>
     <rPh sb="42" eb="43">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">selectByPage(pageable:Pageable,date:LocalDateTime,customerId:Integer)     </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文明細テーブルに左記のデータが追加されていること。</t>
+    <rPh sb="0" eb="4">
+      <t>チュウモンメイサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>status(
+orderStatusId=1,
+orderStatusName="注文済み"
+)</t>
+    <rPh sb="42" eb="45">
+      <t>チュウモンズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数に当該メソッドを実行
+order(
+orderId = null, orderDate = "2001年06月09日(水)午後04時01分19秒", amountTotal = 1, orderstatus.orderStatusId = 1, paymethod = 1, customerId = 1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左記のデータが注文ステータステーブルに追加されていること。</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下記を引数に当該メソッドを実行
+orderDetail(
+orderDetailId=null,orderId=2,
+productId=1,count=5,
+customerId=1
+)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">注文テーブルからcustomerIdが１の顧客の注文が返されること。
+</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
       <t>カエ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -335,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -383,14 +378,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -539,6 +526,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +544,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -557,24 +562,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:L7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -947,25 +934,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,23 +967,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1034,20 +1021,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="19" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1057,140 +1044,162 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="1:17" ht="55" customHeight="1">
+    <row r="5" spans="1:17" ht="70" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22" t="s">
+      <c r="C5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="C6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="1:17" ht="60" customHeight="1">
+    <row r="8" spans="1:17" ht="69.5" customHeight="1">
       <c r="A8" s="11">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="60" customHeight="1">
       <c r="A9" s="11">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="P9:Q9"/>
@@ -1200,20 +1209,6 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-OrderRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-OrderRepository.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27070A95-059F-47D9-9639-04D31A597D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B408742E-5A35-40D1-99B6-895A4A936BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>作成者</t>
   </si>
@@ -146,10 +146,6 @@
     <rPh sb="3" eb="5">
       <t xml:space="preserve">タイショウ </t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FS</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -323,6 +319,34 @@
     <rPh sb="27" eb="28">
       <t>カエ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="1">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -481,7 +505,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,6 +550,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,35 +579,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -916,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:L6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -929,61 +956,62 @@
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="8.36328125" style="4" customWidth="1"/>
     <col min="14" max="15" width="9.6328125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="12.36328125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -993,7 +1021,9 @@
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="11.25" customHeight="1">
       <c r="A3" s="7"/>
@@ -1021,20 +1051,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="25" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1044,162 +1074,178 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="70" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="28">
+        <v>45510</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="28">
+        <v>45510</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="28">
+        <v>45510</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" ht="69.5" customHeight="1">
       <c r="A8" s="11">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="28">
+        <v>45510</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="60" customHeight="1">
       <c r="A9" s="11">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="28">
+        <v>45510</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="P9:Q9"/>
@@ -1209,6 +1255,20 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
